--- a/biology/Médecine/Classification_des_virus/Classification_des_virus.xlsx
+++ b/biology/Médecine/Classification_des_virus/Classification_des_virus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification des virus n'est pas intégrée à celle réalisée pour les êtres vivants, l'appartenance même des virus au monde vivant étant sujette à débat. Deux méthodes font autorité :
 la classification Baltimore, proposée par David Baltimore, lauréat du prix Nobel de physiologie ou médecine en 1975, qui est basée sur le type d'acide nucléique des virus (ADN ou ARN) et son mode d'expression ;
@@ -514,7 +526,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes variées des virus résultent du fait que l'un des deux brins d'ADN dans lesquels toutes les formes de vie cellulaire conservent leur information génétique est redondant, et que par conséquent les virus peuvent avoir des génomes à simple ou double brin. De plus, le génome de certains virus est formé d'ARN plutôt que d'ADN. L'ARN est présent dans les cellules comme intermédiaire lorsque les gènes sont traduits en protéines. Le génome des virus à ARN peut être codé dans deux directions différentes : soit les gènes sont stockés dans la direction 5'→3' (polarité positive ou +), comme celle dans laquelle les gènes sont codés dans l'ARN messager des cellules, soit ils sont stockés dans la direction opposée (polarité négative ou -).
 La taxonomie des virus est similaire à celle des organismes cellulaires :
@@ -523,8 +537,8 @@
 Sous-famille (suffixe : -virinae)
 Genre (suffixe : -virus)
 Espèce
-Cependant, le code de nomenclature géré par le Comité international de taxonomie des virus (ICTV) diffère des autres sur plusieurs aspects. Pour l'essentiel, les noms des ordres et des familles sont mis en italiques et les noms des espèces ne suivent pas la nomenclature binomiale mais sont souvent de la forme [Virus] de la [maladie]. La définition des ordres est très récente et a été délibérément lente ; à ce jour, seuls trois ont été nommés et la plupart des familles ne sont pas classées. En 2014, 7 ordres, 104 familles, 23 sous-familles, 505 genres et 3 186 espèces virales sont décrits[1].
-En octobre 2018, l'ICTV franchit un pas vers une classification phylogénétique en approuvant l'usage futur de 15 rangs taxonomiques (domaine, sous-domaine, règne, sous-règne, embranchement (phylum), sous-embranchement, classe, sous-classe, ordre, sous-ordre, famille, sous-famille, genre, sous-genre, espèce), et en validant un embranchement, deux sous-embranchements et six classes. L'embranchement validé est celui des virus à ARN simple brin à polarité négative, dénommé Negarnaviricota et divisé en deux sous-embranchements, Haploviricotina (dont le virus Ebola et le virus de la rage) et Polyploviricotina (dont le virus de la fièvre de Lassa et le virus de la grippe A)[2],[3]. L'ICTV met aussi à jour sa liste des taxons de rang inférieur : 14 ordres, 7 sous-ordres, 143 familles, 64 sous-familles, 846 genres, 59 sous-genres et 4 958 espèces[3]. La liste des taxons reconnus est disponible en ligne[4].
+Cependant, le code de nomenclature géré par le Comité international de taxonomie des virus (ICTV) diffère des autres sur plusieurs aspects. Pour l'essentiel, les noms des ordres et des familles sont mis en italiques et les noms des espèces ne suivent pas la nomenclature binomiale mais sont souvent de la forme [Virus] de la [maladie]. La définition des ordres est très récente et a été délibérément lente ; à ce jour, seuls trois ont été nommés et la plupart des familles ne sont pas classées. En 2014, 7 ordres, 104 familles, 23 sous-familles, 505 genres et 3 186 espèces virales sont décrits.
+En octobre 2018, l'ICTV franchit un pas vers une classification phylogénétique en approuvant l'usage futur de 15 rangs taxonomiques (domaine, sous-domaine, règne, sous-règne, embranchement (phylum), sous-embranchement, classe, sous-classe, ordre, sous-ordre, famille, sous-famille, genre, sous-genre, espèce), et en validant un embranchement, deux sous-embranchements et six classes. L'embranchement validé est celui des virus à ARN simple brin à polarité négative, dénommé Negarnaviricota et divisé en deux sous-embranchements, Haploviricotina (dont le virus Ebola et le virus de la rage) et Polyploviricotina (dont le virus de la fièvre de Lassa et le virus de la grippe A),. L'ICTV met aussi à jour sa liste des taxons de rang inférieur : 14 ordres, 7 sous-ordres, 143 familles, 64 sous-familles, 846 genres, 59 sous-genres et 4 958 espèces. La liste des taxons reconnus est disponible en ligne.
 </t>
         </is>
       </c>
@@ -555,10 +569,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Virus à ADN
-L'information génétique de ces virus est stockée sous forme d'ADN.
-Groupe I – Virus à ADN à double brin
-Ordre des Caudovirales (bactériophages à queue).
+          <t>Virus à ADN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information génétique de ces virus est stockée sous forme d'ADN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Virus à ADN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Groupe I – Virus à ADN à double brin</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ordre des Caudovirales (bactériophages à queue).
 Famille des Myoviridae - exemple phage T4
 Famille des Podoviridae
 Famille des Siphoviridae - exemples : phage λ ; phage T5
@@ -582,9 +640,47 @@
 Famille des Plasmaviridae
 Famille des Poxviridae - exemples virus de la vaccine, virus de la variole
 Famille des Rudiviridae
-Famille des Tectiviridae
-Groupe II – Virus à ADN à simple brin
-bactériophages non classés
+Famille des Tectiviridae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Virus à ADN</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Groupe II – Virus à ADN à simple brin</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>bactériophages non classés
 Famille des Inoviridae
 Famille des Microviridae
 Virus non classés
@@ -593,11 +689,84 @@
 Famille des Nanoviridae
 Famille des Parvoviridae - exemple Parvovirus B19 (qui dépend d'une co-infection à adénovirus pour la croissance)
 Genres non classés
-Anellovirus - exemple Torque teno virus
-Virus à ARN
-L'information génétique est stockée sous forme d'ARN.
-Groupe III – Virus à ARN à double brin
-Famille des Birnaviridae
+Anellovirus - exemple Torque teno virus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Virus à ARN</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information génétique est stockée sous forme d'ARN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Virus à ARN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Groupe III – Virus à ARN à double brin</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Famille des Birnaviridae
 Famille des Chrysoviridae
 Famille des Cystoviridae
 Famille des Hypoviridae
@@ -605,9 +774,47 @@
 Famille des Reoviridae - exemples Rotavirus ou Orthoreovirus
 Famille des Totiviridae
 Genres non classés
-Endornavirus - exemple Vicia faba endornavirus
-Groupe IV – Virus à ARN simple brin à polarité positive (Virus (+)ssARN ou de type ARN messager)
-Ordre des Nidovirales (Virus « nidifiés »)
+Endornavirus - exemple Vicia faba endornavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Virus à ARN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Groupe IV – Virus à ARN simple brin à polarité positive (Virus (+)ssARN ou de type ARN messager)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ordre des Nidovirales (Virus « nidifiés »)
 Famille des Arteriviridae
 Famille des Coronaviridae - exemple Coronavirus
 Famille des Roniviridae
@@ -634,7 +841,7 @@
 Famille des Togaviridae - exemple Alphavirus
 Famille des Tombusviridae
 Famille des Tymoviridae
-Famille des Virgaviridae, regroupant six genres[5] :
+Famille des Virgaviridae, regroupant six genres :
 Genre Furovirus - espèce-type Soil-borne wheat mosaic virus
 Genre Hordeivirus - espèce-type Barley stripe mosaic virus
 Genre Pecluvirus - espèce-type Peanut clump virus
@@ -649,9 +856,47 @@
 Genre Ourmiavirus - exemple Ourmia melon virus
 Genre Sadwavirus - exemple Satsuma dwarf virus
 Genre Sobemovirus - exemple Southern bean mosaic virus, panachure jaune du riz
-Genre Umbravirus - exemple Carrot mottle virus
-Groupe V – Virus à ARN simple brin à polarité négative
-Ordre Mononegavirales (virus à polarité négative non-segmentés)
+Genre Umbravirus - exemple Carrot mottle virus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Virus à ARN</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Groupe V – Virus à ARN simple brin à polarité négative</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ordre Mononegavirales (virus à polarité négative non-segmentés)
 Famille des Bornaviridae - Borna disease virus
 Famille des Filoviridae - exemple virus Ebola, virus de Marburg
 Famille des Paramyxoviridae - exemples virus de la rougeole, virus des oreillons
@@ -666,7 +911,7 @@
 Genre Tenuivirus - exemple Rice stripe virus
 Genre Varicosavirus - exemple Lettuce big-vein associated virus
 Nouvelle classification
-L'officialisation en octobre 2018 du rang taxonomique d'embranchement pour les virus à ARN simple brin à polarité négative (Negarnaviricota) est fondée sur la phylogénie d'un marqueur universel des virus à ARN, l'ARN polymérase ARN-dépendante. La division de cet embranchement en deux sous-embranchements (Haploviricotina et Polyploviricotina) et six classes se base sur ce même marqueur, mais aussi sur l'origine génique des protéines de la capside[2],[3]. La classification adoptée est la suivante[4], jusqu'au rang des familles (la classification complète inclut les genres et les espèces) :
+L'officialisation en octobre 2018 du rang taxonomique d'embranchement pour les virus à ARN simple brin à polarité négative (Negarnaviricota) est fondée sur la phylogénie d'un marqueur universel des virus à ARN, l'ARN polymérase ARN-dépendante. La division de cet embranchement en deux sous-embranchements (Haploviricotina et Polyploviricotina) et six classes se base sur ce même marqueur, mais aussi sur l'origine génique des protéines de la capside,. La classification adoptée est la suivante, jusqu'au rang des familles (la classification complète inclut les genres et les espèces) :
 Embranchement (suffixe : -viricota)
 Sous-embranchements (suffixe : -viricotina)
 Classes (suffixe : -viricetes)
@@ -714,45 +959,122 @@
 Insthoviricetes
 Articulavirales
 Amnoonviridae
-Orthomyxoviridae
-Virus à ADN ou à ARN à transcription inverse
-Groupe VI – rétrovirus à ARN simple brin
-L'information génétique est codée sous forme d'ARN. Une enzyme associée au virus, la transcriptase inverse, crée de l'ADN à partir de l'ARN pour assurer la réplication dans une cellule hôte.
+Orthomyxoviridae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Virus à ADN ou à ARN à transcription inverse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Groupe VI – rétrovirus à ARN simple brin</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'information génétique est codée sous forme d'ARN. Une enzyme associée au virus, la transcriptase inverse, crée de l'ADN à partir de l'ARN pour assurer la réplication dans une cellule hôte.
 Famille Metaviridae
 Famille Pseudoviridae
-Famille Retroviridae - exemples VIH 1, HTLV (lymphome)
-Groupe VII – Pararétrovirus à ADN double brin
-L'information génétique est codée sous forme d'ADN. La réplication se base sur l'ARNm.
+Famille Retroviridae - exemples VIH 1, HTLV (lymphome)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification par type de génome</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Virus à ADN ou à ARN à transcription inverse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Groupe VII – Pararétrovirus à ADN double brin</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'information génétique est codée sous forme d'ADN. La réplication se base sur l'ARNm.
 Famille Hepadnaviridae - exemple virus de l'Hépatite B
 Famille Caulimoviridae - exemple virus de la mosaïque du chou-fleur</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classification_des_virus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_virus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Classification par type de capside</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Capside
 </t>
